--- a/studentlist.xlsx
+++ b/studentlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,10 +480,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -491,13 +489,32 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D3" t="n">
+        <v>95</v>
+      </c>
+      <c r="E3" t="n">
         <v>90</v>
       </c>
-      <c r="E3" t="n">
-        <v>100</v>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>王一凡</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>99</v>
+      </c>
+      <c r="D4" t="n">
+        <v>99</v>
+      </c>
+      <c r="E4" t="n">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/studentlist.xlsx
+++ b/studentlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,75 +446,86 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>语文</t>
+          <t>专业</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>数学</t>
+          <t>年级</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>英语</t>
+          <t>高等数学</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>大学物理</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Python程序设计基础</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>202383910029</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>徐康</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" t="n">
-        <v>100</v>
+          <t>徐炜杰</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>100</v>
+        <v>90</v>
+      </c>
+      <c r="F2" t="n">
+        <v>86</v>
+      </c>
+      <c r="G2" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>202383910027</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>徐炜杰</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>徐康</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>95</v>
+      </c>
+      <c r="F3" t="n">
         <v>90</v>
       </c>
-      <c r="D3" t="n">
-        <v>95</v>
-      </c>
-      <c r="E3" t="n">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>王一凡</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>99</v>
-      </c>
-      <c r="D4" t="n">
-        <v>99</v>
-      </c>
-      <c r="E4" t="n">
-        <v>99</v>
+      <c r="G3" t="n">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/studentlist.xlsx
+++ b/studentlist.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,11 +472,11 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>202383910029</v>
+        <v>202383910024</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>徐炜杰</t>
+          <t>王一凡</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -490,42 +490,274 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F2" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="G2" t="n">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>202383910031</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>姚选</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>97</v>
+      </c>
+      <c r="F3" t="n">
+        <v>91</v>
+      </c>
+      <c r="G3" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>202383910027</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>徐康</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>人工智能</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E3" t="n">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>95</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F4" t="n">
         <v>90</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G4" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>202383910002</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>蔡一泓</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>89</v>
+      </c>
+      <c r="F5" t="n">
+        <v>88</v>
+      </c>
+      <c r="G5" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>202383910025</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>王伯涵</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>93</v>
+      </c>
+      <c r="F6" t="n">
+        <v>89</v>
+      </c>
+      <c r="G6" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>202383910003</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>陈奕权</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>87</v>
+      </c>
+      <c r="F7" t="n">
+        <v>85</v>
+      </c>
+      <c r="G7" t="n">
         <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>202383910035</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>赵博研</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>91</v>
+      </c>
+      <c r="F8" t="n">
+        <v>90</v>
+      </c>
+      <c r="G8" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>202383910013</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>钱昱彬</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>88</v>
+      </c>
+      <c r="F9" t="n">
+        <v>84</v>
+      </c>
+      <c r="G9" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>202383910001</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>陈乐天</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>80</v>
+      </c>
+      <c r="F10" t="n">
+        <v>80</v>
+      </c>
+      <c r="G10" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>202383910029</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>徐炜杰</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>75</v>
+      </c>
+      <c r="F11" t="n">
+        <v>86</v>
+      </c>
+      <c r="G11" t="n">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
